--- a/Service/Reports/Capstone Projects 9-2-2020.xlsx
+++ b/Service/Reports/Capstone Projects 9-2-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Finished Shop App\venv\TempSource\Service\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\FinishedShopApp\venv\TempSource\Service\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABBF2BED-BD03-47A8-BC26-4F79F58C191C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D355F9-838D-45F1-B431-A439EC6701A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capstone Projects 9-2-2020" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1429,12 +1429,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="106.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/Service/Reports/Capstone Projects 9-2-2020.xlsx
+++ b/Service/Reports/Capstone Projects 9-2-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\FinishedShopApp\venv\TempSource\Service\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D355F9-838D-45F1-B431-A439EC6701A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44930C1-A73F-47E3-B042-A8FEF85E3426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="23400" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capstone Projects 9-2-2020" sheetId="1" r:id="rId1"/>
@@ -1433,11 +1433,12 @@
   <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="106.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
